--- a/Data/Input/Config_Applications.xlsx
+++ b/Data/Input/Config_Applications.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chaithra\APAC_796_Daily_Raw_Data\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD178F3-08F2-4400-AA18-31AF7E4621AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A5643-D9DF-417F-8AEE-B30DB4919F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Trigger_Time</t>
   </si>
@@ -28,7 +29,19 @@
     <t>Application</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Global Inventory Report_Email,Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi,Global Inventory Report_Email</t>
+  </si>
+  <si>
+    <t>Open Demand Report_JDE</t>
+  </si>
+  <si>
+    <t>01 AM</t>
   </si>
 </sst>
 </file>
@@ -95,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -106,6 +119,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,7 +437,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -467,20 +481,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="3">
-        <v>18</v>
+      <c r="A2" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="3">
-        <v>19</v>
+      <c r="A3" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1507,4 +1521,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4367B868-290B-4C8E-820C-F23EBA53F997}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Input/Config_Applications.xlsx
+++ b/Data/Input/Config_Applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chaithra\APAC_796_Daily_Raw_Data\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A5643-D9DF-417F-8AEE-B30DB4919F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AA9165-2AC0-4F62-BD74-4EDD27C05C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,27 +21,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Trigger_Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Application</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t xml:space="preserve"> Global Inventory Report_Email,Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi,Global Inventory Report_Email</t>
+    <t>Trigger start Time</t>
   </si>
   <si>
-    <t>Open Demand Report_JDE</t>
+    <t>Trigger end time</t>
   </si>
   <si>
-    <t>01 AM</t>
+    <t>Trigger_Start_Time</t>
+  </si>
+  <si>
+    <t>Trigger_End_Time</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yield Report_PowerBi,Consumables Daily Loading Plan_PowerBi,Global Inventory Report_Email,Open Demand Report_JDE,Consumption Report_JDE,Inventory Report_JDE,Plate WorkOrder Report_JDE</t>
+  </si>
+  <si>
+    <t>Daily Loading Plan Report_PowerBi</t>
   </si>
 </sst>
 </file>
@@ -434,28 +446,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.26953125" customWidth="1"/>
-    <col min="2" max="2" width="91.7265625" customWidth="1"/>
-    <col min="3" max="3" width="105.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="2" width="35.26953125" customWidth="1"/>
+    <col min="3" max="3" width="91.7265625" customWidth="1"/>
+    <col min="4" max="4" width="105.453125" customWidth="1"/>
+    <col min="5" max="27" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -479,63 +493,77 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+    <row r="4" spans="1:27" ht="14.25" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="14.5">
+    <row r="6" spans="1:27" ht="14.5">
       <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1525,15 +1553,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4367B868-290B-4C8E-820C-F23EBA53F997}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
